--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -277,6 +277,25 @@
   </si>
   <si>
     <t>安栋，张飞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1077,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,7 +1114,8 @@
     <col min="10" max="10" width="15.875" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="10" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
-    <col min="13" max="14" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="11" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="11" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
@@ -1199,12 +1219,20 @@
       <c r="L2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="R2" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="S2" s="33"/>
       <c r="T2" s="30"/>
     </row>
@@ -1243,12 +1271,20 @@
       <c r="L3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="R3" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="S3" s="33"/>
       <c r="T3" s="29"/>
     </row>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_马丁组.xlsx
@@ -248,10 +248,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>小区合并</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>官网，房东PC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小区合并 </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1195,7 +1195,7 @@
         <v>62</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>26</v>
@@ -1211,27 +1211,27 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2" s="16">
         <v>42653</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="30"/>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>62</v>
@@ -1263,27 +1263,27 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" s="16">
         <v>42653</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="29"/>
